--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T16:49:25+00:00</t>
+    <t>2024-11-13T17:25:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T17:25:07+00:00</t>
+    <t>2024-11-16T17:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-16T17:09:48+00:00</t>
+    <t>2024-11-17T10:04:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:04:37+00:00</t>
+    <t>2024-11-17T10:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:15:13+00:00</t>
+    <t>2024-11-17T10:25:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:25:25+00:00</t>
+    <t>2024-11-17T10:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T10:38:58+00:00</t>
+    <t>2024-11-17T16:50:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-17T16:50:27+00:00</t>
+    <t>2024-11-18T17:53:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T17:53:13+00:00</t>
+    <t>2024-11-20T16:15:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
+++ b/MappingPosologie/ig/StructureDefinition-fr-medication-history-sources.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-20T16:15:47+00:00</t>
+    <t>2024-12-26T10:27:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -487,7 +487,7 @@
     <t>fr-medication-history-source-type</t>
   </si>
   <si>
-    <t>http://interopsante.org/fhir/ValueSet/fr-medication-history-source-type</t>
+    <t>https://hl7.fr/fhir/fr/medication/ValueSet/fr-medication-history-source-type</t>
   </si>
   <si>
     <t>Extension.extension:source.extension:author</t>
@@ -521,7 +521,7 @@
     <t>Extension.extension:source.extension:author.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role-profession|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person)
 </t>
   </si>
   <si>
@@ -905,7 +905,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="31.84765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.84375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.21484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
